--- a/Results/Alpha-Beta-CROWN_Results.xlsx
+++ b/Results/Alpha-Beta-CROWN_Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amalia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Faculty\VF\Proiect-VF\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E39FCE-1201-41BA-B377-4613E96443E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6077FD3-B3A2-46AF-BE8E-C07F159364A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BD6A9B33-D49F-4C79-8660-03A485EFCFAB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BD6A9B33-D49F-4C79-8660-03A485EFCFAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="63">
   <si>
     <t>ONNX</t>
   </si>
@@ -208,13 +217,19 @@
   </si>
   <si>
     <t>Time (seconds)</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>MAX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +240,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -257,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -265,6 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4204B2C7-034F-4164-AD70-3D4FA57724C1}">
-  <dimension ref="A1:D187"/>
+  <dimension ref="A1:G187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,7 +617,7 @@
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,8 +630,14 @@
       <c r="D1" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -620,8 +650,16 @@
       <c r="D2" s="2">
         <v>5.5213999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <f>AVERAGE(D2:D187)</f>
+        <v>2.5882532258064517</v>
+      </c>
+      <c r="G2">
+        <f>MAX(D2:D187)</f>
+        <v>69.086600000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -635,7 +673,7 @@
         <v>1.4593</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -649,7 +687,7 @@
         <v>1.647</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -663,7 +701,7 @@
         <v>1.6338999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -677,7 +715,7 @@
         <v>1.2952999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -691,7 +729,7 @@
         <v>1.4668000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -705,7 +743,7 @@
         <v>1.1906000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -719,7 +757,7 @@
         <v>1.0848</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -733,7 +771,7 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -747,7 +785,7 @@
         <v>1.4670000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -761,7 +799,7 @@
         <v>1.9129</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -775,7 +813,7 @@
         <v>1.5170999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -789,7 +827,7 @@
         <v>1.5879000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -803,7 +841,7 @@
         <v>2.5573000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
